--- a/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
+++ b/REGULAR/VILLANUEVA, CHRISTIANNE FAYE ATIENZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/24-26/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1073,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1116,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1180,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1240,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1306,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1369,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +1467,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1526,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1591,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1634,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1709,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1895,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1961,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2019,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2085,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2141,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2216,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2259,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2325,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2381,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2479,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2542,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2608,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2977,12 +2986,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3154,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.75</v>
+        <v>20.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3155,7 +3164,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.75</v>
+        <v>4.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3646,25 +3655,33 @@
       <c r="A32" s="40">
         <v>45200</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="39"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="39">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="48">
+        <v>45201</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B33" s="20"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -3673,34 +3690,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>3</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="K33" s="48" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="39"/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39">
+        <v>1</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="48">
+        <v>45237</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -3709,16 +3738,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>1</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="48">
+        <v>45252</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B36" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -3727,14 +3762,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="48">
+        <v>45271</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>45352</v>
+      <c r="A37" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3752,7 +3791,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3770,7 +3809,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3788,7 +3827,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3806,7 +3845,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3824,7 +3863,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3842,7 +3881,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3860,7 +3899,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3878,7 +3917,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3896,7 +3935,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3914,7 +3953,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3932,7 +3971,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3950,7 +3989,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3968,7 +4007,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3986,7 +4025,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4004,7 +4043,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4022,7 +4061,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4040,7 +4079,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4058,7 +4097,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4076,7 +4115,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4094,7 +4133,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4112,7 +4151,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4130,7 +4169,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4148,7 +4187,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4166,7 +4205,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4184,7 +4223,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4202,7 +4241,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4220,7 +4259,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4238,7 +4277,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4256,7 +4295,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4274,7 +4313,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4292,7 +4331,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4310,7 +4349,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4328,7 +4367,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4346,7 +4385,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4364,7 +4403,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4382,7 +4421,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4400,7 +4439,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4418,7 +4457,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4436,7 +4475,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4454,7 +4493,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4472,7 +4511,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4490,7 +4529,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4508,7 +4547,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4526,7 +4565,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4544,7 +4583,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4562,7 +4601,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4580,7 +4619,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4598,7 +4637,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4616,7 +4655,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4634,7 +4673,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4652,7 +4691,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4670,7 +4709,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4688,7 +4727,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4706,7 +4745,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4724,7 +4763,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4742,7 +4781,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4760,7 +4799,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4778,7 +4817,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4796,7 +4835,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4814,7 +4853,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4832,7 +4871,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4850,7 +4889,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4868,7 +4907,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4886,7 +4925,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4904,7 +4943,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4922,7 +4961,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4940,7 +4979,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4958,7 +4997,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4976,7 +5015,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47453</v>
+        <v>47362</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4994,7 +5033,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47484</v>
+        <v>47392</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5012,7 +5051,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47515</v>
+        <v>47423</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5030,7 +5069,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47543</v>
+        <v>47453</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5048,7 +5087,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47574</v>
+        <v>47484</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5066,7 +5105,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47604</v>
+        <v>47515</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5084,7 +5123,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47635</v>
+        <v>47543</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5102,7 +5141,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47665</v>
+        <v>47574</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5120,7 +5159,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47696</v>
+        <v>47604</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5138,7 +5177,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47727</v>
+        <v>47635</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5156,7 +5195,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47757</v>
+        <v>47665</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5174,7 +5213,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47788</v>
+        <v>47696</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5192,7 +5231,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47818</v>
+        <v>47727</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5210,7 +5249,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47849</v>
+        <v>47757</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5228,7 +5267,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47880</v>
+        <v>47788</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5246,7 +5285,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47908</v>
+        <v>47818</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5264,7 +5303,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47939</v>
+        <v>47849</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5282,7 +5321,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47969</v>
+        <v>47880</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5300,7 +5339,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>48000</v>
+        <v>47908</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5317,7 +5356,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>47939</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5333,7 +5374,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>47969</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5349,7 +5392,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>48000</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5493,36 +5538,84 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
-      <c r="I137" s="49"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="49"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
